--- a/docs/UNCEM.xlsx
+++ b/docs/UNCEM.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="3300" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Madonie_GPP" sheetId="1" r:id="rId1"/>
-    <sheet name="Titerno_GPP" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Madonie_NPP" sheetId="4" r:id="rId2"/>
+    <sheet name="Titerno_GPP" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -48,13 +49,16 @@
     <t>GPP-MADONIE_30m_2002-2009_20121210170000_output</t>
   </si>
   <si>
-    <t>GPP-MADONIE_30m_2002-2009_20121211181818_output</t>
-  </si>
-  <si>
     <t>Average senza 2007</t>
   </si>
   <si>
     <t>GPP-TITERNO-TAMMARO_30m_2002-2009_20121212000000_output</t>
+  </si>
+  <si>
+    <t>GPP-MADONIE_30m_2002-2009_20121212121212_output</t>
+  </si>
+  <si>
+    <t>NPP gCm^-2yr^-1</t>
   </si>
 </sst>
 </file>
@@ -97,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -105,27 +109,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -164,8 +213,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.25973388743073755"/>
-          <c:w val="0.69938650575492978"/>
+          <c:y val="0.2597338874307375"/>
+          <c:w val="0.69938650575492955"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -508,25 +557,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96660480"/>
-        <c:axId val="96477952"/>
+        <c:axId val="97573888"/>
+        <c:axId val="97395456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96660480"/>
+        <c:axId val="97573888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96477952"/>
+        <c:crossAx val="97395456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96477952"/>
+        <c:axId val="97395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +583,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96660480"/>
+        <c:crossAx val="97573888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -547,7 +596,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -784,25 +833,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96504832"/>
-        <c:axId val="96523008"/>
+        <c:axId val="97418240"/>
+        <c:axId val="97440512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96504832"/>
+        <c:axId val="97418240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96523008"/>
+        <c:crossAx val="97440512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96523008"/>
+        <c:axId val="97440512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +878,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96504832"/>
+        <c:crossAx val="97418240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,7 +891,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1223,11 +1272,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98267520"/>
-        <c:axId val="98269056"/>
+        <c:axId val="98070912"/>
+        <c:axId val="98072448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98267520"/>
+        <c:axId val="98070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1284,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98269056"/>
+        <c:crossAx val="98072448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1292,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98269056"/>
+        <c:axId val="98072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1318,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98267520"/>
+        <c:crossAx val="98070912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,7 +1344,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1664,11 +1713,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96944512"/>
-        <c:axId val="96946048"/>
+        <c:axId val="98189696"/>
+        <c:axId val="98191232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96944512"/>
+        <c:axId val="98189696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1725,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96946048"/>
+        <c:crossAx val="98191232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1684,7 +1733,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96946048"/>
+        <c:axId val="98191232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1759,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96944512"/>
+        <c:crossAx val="98189696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,7 +1785,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2105,11 +2154,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98304384"/>
-        <c:axId val="98305920"/>
+        <c:axId val="98234752"/>
+        <c:axId val="98236288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98304384"/>
+        <c:axId val="98234752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2166,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98305920"/>
+        <c:crossAx val="98236288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +2174,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98305920"/>
+        <c:axId val="98236288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2200,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98304384"/>
+        <c:crossAx val="98234752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2177,7 +2226,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2474,11 +2523,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109936000"/>
-        <c:axId val="110503040"/>
+        <c:axId val="98312960"/>
+        <c:axId val="98314496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109936000"/>
+        <c:axId val="98312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2535,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110503040"/>
+        <c:crossAx val="98314496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2494,7 +2543,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110503040"/>
+        <c:axId val="98314496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2569,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109936000"/>
+        <c:crossAx val="98312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2546,7 +2595,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3027,30 +3076,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:M39"/>
+  <dimension ref="C4:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="1" t="s">
@@ -3217,16 +3268,16 @@
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="1" t="s">
@@ -3264,568 +3315,571 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1303.56</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1084.55</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1437.25</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1399.92</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>1087.04</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>901.37</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>1338.98</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>1293.1400000000001</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f>AVERAGE(D12:K12)</f>
         <v>1230.7262499999999</v>
       </c>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1907.79</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1753.53</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>2085.36</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1975.98</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1654.21</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>1586.51</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>2038.11</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>1885.32</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" ref="L13:L15" si="1">AVERAGE(D13:K13)</f>
         <v>1860.8512499999999</v>
       </c>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1821.47</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1508.88</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1713</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>1479.45</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1273.51</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>433.98</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>1671.53</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>1786.65</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>1461.0587500000001</v>
       </c>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1568.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1328.83</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1129.93</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1233.76</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1165.8800000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>658.04</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1026</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>975.93</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>1135.8587500000001</v>
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="4" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2003</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>2005</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>2006</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>2007</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>2008</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>2009</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="3:14">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1303.56</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>1084.55</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1437.25</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1399.92</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1087.04</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>901.37</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1338.98</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1293.1400000000001</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f>AVERAGE(D18:K18)</f>
         <v>1230.7262499999999</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="3:14">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1749.33</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1601.45</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1938.99</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>1830.15</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>1516.7</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>1431.8</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>1859.35</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>1712.41</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f>AVERAGE(D19:K19)</f>
         <v>1705.0225</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="3:14">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1686.78</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1413.19</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>1583.33</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>1433.39</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>1201.8399999999999</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>378.66</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1500.45</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>1671.07</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <f t="shared" ref="L20:L21" si="2">AVERAGE(D20:K20)</f>
         <v>1358.5887500000001</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="3:14">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1654.67</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>1460.21</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1204.54</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>1318.07</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>1246.29</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>728.19</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>1092.6300000000001</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>1045.1600000000001</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>1218.7199999999998</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
+    <row r="22" spans="3:14">
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="4" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>2002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>2003</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>2004</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2005</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>2006</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>2007</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>2008</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>2009</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="3:14">
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1322.83</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>1103.8</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>1467.65</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>1434.92</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>1118.94</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>932.23</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>1392.11</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>1352.31</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <f>AVERAGE(D24:K24)</f>
         <v>1265.5987500000001</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="4" t="s">
+    <row r="25" spans="3:14">
+      <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1730.3</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1576.9</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>1894.88</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>1780.42</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>1646.03</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>1369.54</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>1759.92</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>1601.53</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <f>AVERAGE(D25:K25)</f>
         <v>1669.94</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="3:14">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1772.4</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>1489.63</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>1674.39</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>1520.2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>1279.57</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>404.31</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1609</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>1798.7</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f t="shared" ref="L26:L27" si="3">AVERAGE(D26:K26)</f>
         <v>1443.5250000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="3:14">
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>2092.61</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1885.76</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1588.86</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>1775.95</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>1715.13</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>1023.3</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>1567.2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>1529.27</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f t="shared" si="3"/>
         <v>1647.26</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="6" t="s">
+    <row r="28" spans="3:14" ht="12" thickBot="1">
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2004</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2005</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2006</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2007</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2009</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2002</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2003</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2004</v>
-      </c>
-      <c r="G29" s="4">
-        <v>2005</v>
-      </c>
-      <c r="H29" s="4">
-        <v>2006</v>
-      </c>
-      <c r="I29" s="4">
-        <v>2007</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2008</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2009</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="4" t="s">
+      <c r="N29" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1322.862779</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1103.8313029999999</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>1467.683417</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>1435.8820149999999</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>1118.9712400000001</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>932.25153899999998</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>1392.146428</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>1352.342668</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <f>AVERAGE(D30:K30)</f>
         <v>1265.746423625</v>
       </c>
@@ -3833,36 +3887,40 @@
         <f>AVERAGE(K30,J30,H30,G30,F30,E30,D30)</f>
         <v>1313.3885500000001</v>
       </c>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="4" t="s">
+      <c r="N30" s="14">
+        <f>L30*0.49</f>
+        <v>620.21574757625001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1711.9945270000001</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1560.1885930000001</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1874.7971259999999</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>1761.5565309999999</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>1448.5159739999999</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>1355.0328219999999</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>1741.273158</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>1584.558931</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <f>AVERAGE(D31:K31)</f>
         <v>1629.7397077499998</v>
       </c>
@@ -3870,82 +3928,94 @@
         <f t="shared" ref="M31:M33" si="4">AVERAGE(K31,J31,H31,G31,F31,E31,D31)</f>
         <v>1668.9835485714286</v>
       </c>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="4" t="s">
+      <c r="N31" s="14">
+        <f t="shared" ref="N31:N33" si="5">L31*0.49</f>
+        <v>798.57245679749985</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1663.9636370000001</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>1373.902558</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>1551.296926</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>1400.266494</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>1164.3494949999999</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>357.48516699999999</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>1466.0512490000001</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>1663.9636370000001</v>
       </c>
-      <c r="L32" s="5">
-        <f t="shared" ref="L32:L33" si="5">AVERAGE(D32:K32)</f>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32:L33" si="6">AVERAGE(D32:K32)</f>
         <v>1330.1598953749999</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="4"/>
         <v>1469.1134280000001</v>
       </c>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="4" t="s">
+      <c r="N32" s="14">
+        <f t="shared" si="5"/>
+        <v>651.77834873374991</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="12" thickBot="1">
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>1762.8977870000001</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1513.8053480000001</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>1264.202378</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>1371.6033379999999</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>1285.026734</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>728.00964499999998</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>1103.499141</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>1037.742211</v>
       </c>
-      <c r="L33" s="5">
-        <f t="shared" si="5"/>
+      <c r="L33" s="4">
+        <f t="shared" si="6"/>
         <v>1258.3483227500001</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
         <v>1334.110991</v>
       </c>
-    </row>
-    <row r="36" spans="3:13">
+      <c r="N33" s="15">
+        <f t="shared" si="5"/>
+        <v>616.59067814750006</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14">
       <c r="I36" s="1">
         <f>(I30*100)/M30</f>
         <v>70.980635471506119</v>
@@ -3955,33 +4025,33 @@
         <v>29.019364528493881</v>
       </c>
     </row>
-    <row r="37" spans="3:13">
+    <row r="37" spans="3:14">
       <c r="I37" s="1">
-        <f t="shared" ref="I37:I39" si="6">(I31*100)/M31</f>
+        <f t="shared" ref="I37:I39" si="7">(I31*100)/M31</f>
         <v>81.189105977697878</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J39" si="7">100-I37</f>
+        <f t="shared" ref="J37:J39" si="8">100-I37</f>
         <v>18.810894022302122</v>
       </c>
     </row>
-    <row r="38" spans="3:13">
+    <row r="38" spans="3:14">
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.333394562097759</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="8"/>
+        <v>75.666605437902234</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="I39" s="1">
         <f t="shared" si="7"/>
-        <v>75.666605437902234</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="I39" s="1">
-        <f t="shared" si="6"/>
         <v>54.568896434494633</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.431103565505367</v>
       </c>
     </row>
@@ -4003,143 +4073,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:12">
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2002</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2004</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2005</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2006</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2007</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2008</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2009</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12">
+        <f>AVERAGE(D6:K6)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12" t="e">
+        <f>AVERAGE(D7:K7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12" t="e">
+        <f t="shared" ref="L8:L9" si="0">AVERAGE(D8:K8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:L9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>2002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>2003</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>2004</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>2005</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>2006</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>2007</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>2008</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>2009</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="e">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="e">
         <f>AVERAGE(D6:K6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1541.06</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>1790.13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>1893.6</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>1331.02</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>1376.09</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>1348.23</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>1316.55</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>1401.9</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <f t="shared" ref="L7:L9" si="0">AVERAGE(D7:K7)</f>
         <v>1499.8224999999998</v>
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="e">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="e">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4154,7 +4364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/UNCEM.xlsx
+++ b/docs/UNCEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>NPP gCm^-2yr^-1</t>
+  </si>
+  <si>
+    <t>GPP-MADONIE_30m_2002-2020_20121217000001_output</t>
   </si>
 </sst>
 </file>
@@ -158,23 +161,23 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -204,7 +207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -213,8 +215,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.2597338874307375"/>
-          <c:w val="0.69938650575492955"/>
+          <c:y val="0.25973388743073739"/>
+          <c:w val="0.69938650575492911"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -557,25 +559,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97573888"/>
-        <c:axId val="97395456"/>
+        <c:axId val="108518784"/>
+        <c:axId val="108340352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97573888"/>
+        <c:axId val="108518784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97395456"/>
+        <c:crossAx val="108340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97395456"/>
+        <c:axId val="108340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,20 +585,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97573888"/>
+        <c:crossAx val="108518784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -833,25 +834,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97418240"/>
-        <c:axId val="97440512"/>
+        <c:axId val="108367232"/>
+        <c:axId val="108385408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97418240"/>
+        <c:axId val="108367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97440512"/>
+        <c:crossAx val="108385408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97440512"/>
+        <c:axId val="108385408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +879,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97418240"/>
+        <c:crossAx val="108367232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -891,7 +892,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1272,11 +1273,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98070912"/>
-        <c:axId val="98072448"/>
+        <c:axId val="108958464"/>
+        <c:axId val="108960000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98070912"/>
+        <c:axId val="108958464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1285,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98072448"/>
+        <c:crossAx val="108960000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1293,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98072448"/>
+        <c:axId val="108960000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1319,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98070912"/>
+        <c:crossAx val="108958464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1345,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1713,11 +1714,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98189696"/>
-        <c:axId val="98191232"/>
+        <c:axId val="109003520"/>
+        <c:axId val="109005056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98189696"/>
+        <c:axId val="109003520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1726,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98191232"/>
+        <c:crossAx val="109005056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1733,7 +1734,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98191232"/>
+        <c:axId val="109005056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1760,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98189696"/>
+        <c:crossAx val="109003520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,7 +1786,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2154,11 +2155,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98234752"/>
-        <c:axId val="98236288"/>
+        <c:axId val="109044480"/>
+        <c:axId val="109046016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98234752"/>
+        <c:axId val="109044480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2167,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98236288"/>
+        <c:crossAx val="109046016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2174,7 +2175,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98236288"/>
+        <c:axId val="109046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2201,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98234752"/>
+        <c:crossAx val="109044480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,13 +2227,229 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>castanea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$56:$V$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$60:$V$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1754.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1506.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1258.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1365.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1278.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1098.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1033.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1716.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1468.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1357.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1269.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1238.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1116.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>977.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>827.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>884.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>600.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>682.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="109222144"/>
+        <c:axId val="119439360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="109222144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119439360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119439360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109222144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2523,11 +2740,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98312960"/>
-        <c:axId val="98314496"/>
+        <c:axId val="109376640"/>
+        <c:axId val="109378176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98312960"/>
+        <c:axId val="109376640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2752,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98314496"/>
+        <c:crossAx val="109378176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2543,7 +2760,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98314496"/>
+        <c:axId val="109378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,7 +2786,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98312960"/>
+        <c:crossAx val="109376640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,7 +2812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2748,6 +2965,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354725</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3076,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:N39"/>
+  <dimension ref="C4:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3092,16 +3339,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="1" t="s">
@@ -3268,16 +3515,16 @@
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="1" t="s">
@@ -3445,16 +3692,16 @@
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="3"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:14">
@@ -3623,16 +3870,16 @@
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:14">
@@ -3800,18 +4047,18 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="12" thickBot="1">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="3" t="s">
@@ -3847,7 +4094,7 @@
       <c r="M29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3887,7 +4134,7 @@
         <f>AVERAGE(K30,J30,H30,G30,F30,E30,D30)</f>
         <v>1313.3885500000001</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="10">
         <f>L30*0.49</f>
         <v>620.21574757625001</v>
       </c>
@@ -3928,7 +4175,7 @@
         <f t="shared" ref="M31:M33" si="4">AVERAGE(K31,J31,H31,G31,F31,E31,D31)</f>
         <v>1668.9835485714286</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="10">
         <f t="shared" ref="N31:N33" si="5">L31*0.49</f>
         <v>798.57245679749985</v>
       </c>
@@ -3969,7 +4216,7 @@
         <f t="shared" si="4"/>
         <v>1469.1134280000001</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="10">
         <f t="shared" si="5"/>
         <v>651.77834873374991</v>
       </c>
@@ -4010,7 +4257,7 @@
         <f t="shared" si="4"/>
         <v>1334.110991</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="11">
         <f t="shared" si="5"/>
         <v>616.59067814750006</v>
       </c>
@@ -4055,8 +4302,178 @@
         <v>45.431103565505367</v>
       </c>
     </row>
+    <row r="55" spans="3:23">
+      <c r="D55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+    </row>
+    <row r="56" spans="3:23">
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2004</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2005</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2006</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2007</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2009</v>
+      </c>
+      <c r="L56" s="3">
+        <v>2010</v>
+      </c>
+      <c r="M56" s="3">
+        <v>2011</v>
+      </c>
+      <c r="N56" s="3">
+        <v>2012</v>
+      </c>
+      <c r="O56" s="3">
+        <v>2013</v>
+      </c>
+      <c r="P56" s="3">
+        <v>2014</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>2015</v>
+      </c>
+      <c r="R56" s="3">
+        <v>2016</v>
+      </c>
+      <c r="S56" s="3">
+        <v>2017</v>
+      </c>
+      <c r="T56" s="3">
+        <v>2018</v>
+      </c>
+      <c r="U56" s="3">
+        <v>2019</v>
+      </c>
+      <c r="V56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23">
+      <c r="C57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23">
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23">
+      <c r="C59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23">
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1754.6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1506.92</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1258.48</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1365.25</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1278.8499999999999</v>
+      </c>
+      <c r="I60" s="1">
+        <v>724.77</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1098.6199999999999</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1033.77</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1716.97</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1468.97</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1357.21</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1269.02</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1238.77</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1116.1600000000001</v>
+      </c>
+      <c r="R60" s="1">
+        <v>977.09</v>
+      </c>
+      <c r="S60" s="1">
+        <v>827.84</v>
+      </c>
+      <c r="T60" s="1">
+        <v>884.08</v>
+      </c>
+      <c r="U60" s="1">
+        <v>600.58000000000004</v>
+      </c>
+      <c r="V60" s="1">
+        <v>682.32</v>
+      </c>
+      <c r="W60" s="1">
+        <f>AVERAGE(D60:V60)</f>
+        <v>1166.3300000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D55:V55"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D10:K10"/>
@@ -4085,117 +4502,117 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>2002</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>2003</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>2004</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>2005</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>2006</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>2007</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="7">
         <v>2008</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>2009</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8">
         <f>AVERAGE(D6:K6)</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12" t="e">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8" t="e">
         <f>AVERAGE(D7:K7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12" t="e">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8" t="e">
         <f t="shared" ref="L8:L9" si="0">AVERAGE(D8:K8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="e">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -4225,17 +4642,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="3:12">

--- a/docs/UNCEM.xlsx
+++ b/docs/UNCEM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="3300"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9270" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Madonie_GPP" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -61,7 +61,13 @@
     <t>NPP gCm^-2yr^-1</t>
   </si>
   <si>
-    <t>GPP-MADONIE_30m_2002-2020_20121217000001_output</t>
+    <t>Average 2002-2020</t>
+  </si>
+  <si>
+    <t>Average 2002-2009</t>
+  </si>
+  <si>
+    <t>Average 2010-2020</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -149,11 +155,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -166,10 +258,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -178,6 +270,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -207,6 +308,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -215,8 +317,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.25973388743073739"/>
-          <c:w val="0.69938650575492911"/>
+          <c:y val="0.25973388743073733"/>
+          <c:w val="0.69938650575492889"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -227,7 +329,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$6</c:f>
+              <c:f>Madonie_GPP!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -241,7 +343,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$5:$K$5</c:f>
+              <c:f>Madonie_GPP!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -274,7 +376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$6:$K$6</c:f>
+              <c:f>Madonie_GPP!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -311,7 +413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$7</c:f>
+              <c:f>Madonie_GPP!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -325,7 +427,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$5:$K$5</c:f>
+              <c:f>Madonie_GPP!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -358,7 +460,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$7:$K$7</c:f>
+              <c:f>Madonie_GPP!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -395,7 +497,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$8</c:f>
+              <c:f>Madonie_GPP!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -409,7 +511,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$5:$K$5</c:f>
+              <c:f>Madonie_GPP!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -442,7 +544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$8:$K$8</c:f>
+              <c:f>Madonie_GPP!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -479,7 +581,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$9</c:f>
+              <c:f>Madonie_GPP!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +595,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$5:$K$5</c:f>
+              <c:f>Madonie_GPP!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -526,7 +628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$9:$K$9</c:f>
+              <c:f>Madonie_GPP!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -559,25 +661,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108518784"/>
-        <c:axId val="108340352"/>
+        <c:axId val="100261248"/>
+        <c:axId val="100082816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108518784"/>
+        <c:axId val="100261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108340352"/>
+        <c:crossAx val="100082816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108340352"/>
+        <c:axId val="100082816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,19 +687,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108518784"/>
+        <c:crossAx val="100261248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -634,7 +737,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$12</c:f>
+              <c:f>Madonie_GPP!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -648,7 +751,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$12:$K$12</c:f>
+              <c:f>Madonie_GPP!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -685,7 +788,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$13</c:f>
+              <c:f>Madonie_GPP!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -699,7 +802,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$13:$K$13</c:f>
+              <c:f>Madonie_GPP!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -736,7 +839,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$14</c:f>
+              <c:f>Madonie_GPP!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,7 +853,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$14:$K$14</c:f>
+              <c:f>Madonie_GPP!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -787,7 +890,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$15</c:f>
+              <c:f>Madonie_GPP!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +904,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$15:$K$15</c:f>
+              <c:f>Madonie_GPP!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -834,25 +937,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108367232"/>
-        <c:axId val="108385408"/>
+        <c:axId val="100113792"/>
+        <c:axId val="100127872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108367232"/>
+        <c:axId val="100113792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108385408"/>
+        <c:crossAx val="100127872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108385408"/>
+        <c:axId val="100127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +982,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108367232"/>
+        <c:crossAx val="100113792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -892,7 +995,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -929,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:f>Madonie_GPP!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -943,7 +1046,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -976,7 +1079,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$18:$L$18</c:f>
+              <c:f>Madonie_GPP!$B$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1016,7 +1119,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:f>Madonie_GPP!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1030,7 +1133,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1063,7 +1166,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$19:$L$19</c:f>
+              <c:f>Madonie_GPP!$B$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1103,7 +1206,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:f>Madonie_GPP!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1117,7 +1220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1150,7 +1253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$20:$L$20</c:f>
+              <c:f>Madonie_GPP!$B$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1190,7 +1293,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:f>Madonie_GPP!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,7 +1307,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1237,7 +1340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$21:$L$21</c:f>
+              <c:f>Madonie_GPP!$B$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1273,11 +1376,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108958464"/>
-        <c:axId val="108960000"/>
+        <c:axId val="102863616"/>
+        <c:axId val="102865152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108958464"/>
+        <c:axId val="102863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1388,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108960000"/>
+        <c:crossAx val="102865152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1396,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108960000"/>
+        <c:axId val="102865152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1422,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108958464"/>
+        <c:crossAx val="102863616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,7 +1448,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1382,7 +1485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:f>Madonie_GPP!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1396,7 +1499,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1429,7 +1532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$24:$K$24</c:f>
+              <c:f>Madonie_GPP!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1466,7 +1569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:f>Madonie_GPP!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1480,7 +1583,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1513,7 +1616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$25:$K$25</c:f>
+              <c:f>Madonie_GPP!$B$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1550,7 +1653,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:f>Madonie_GPP!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1564,7 +1667,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1597,7 +1700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$26:$K$26</c:f>
+              <c:f>Madonie_GPP!$B$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1634,7 +1737,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:f>Madonie_GPP!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1648,7 +1751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1681,7 +1784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$27:$K$27</c:f>
+              <c:f>Madonie_GPP!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1714,11 +1817,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109003520"/>
-        <c:axId val="109005056"/>
+        <c:axId val="102908672"/>
+        <c:axId val="102910208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109003520"/>
+        <c:axId val="102908672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1829,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109005056"/>
+        <c:crossAx val="102910208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1734,7 +1837,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109005056"/>
+        <c:axId val="102910208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1863,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109003520"/>
+        <c:crossAx val="102908672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,7 +1889,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1823,7 +1926,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:f>Madonie_GPP!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1837,7 +1940,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1870,7 +1973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$30:$K$30</c:f>
+              <c:f>Madonie_GPP!$B$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1907,7 +2010,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:f>Madonie_GPP!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1921,7 +2024,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1954,7 +2057,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$31:$K$31</c:f>
+              <c:f>Madonie_GPP!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1991,7 +2094,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:f>Madonie_GPP!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2005,7 +2108,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2038,7 +2141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$32:$K$32</c:f>
+              <c:f>Madonie_GPP!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2075,7 +2178,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:f>Madonie_GPP!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,7 +2192,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2122,7 +2225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$33:$K$33</c:f>
+              <c:f>Madonie_GPP!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2155,11 +2258,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109044480"/>
-        <c:axId val="109046016"/>
+        <c:axId val="102957824"/>
+        <c:axId val="102959360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109044480"/>
+        <c:axId val="102957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2270,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109046016"/>
+        <c:crossAx val="102959360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,7 +2278,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109046016"/>
+        <c:axId val="102959360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2304,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109044480"/>
+        <c:crossAx val="102957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,7 +2330,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2237,9 +2340,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2249,7 +2349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$60</c:f>
+              <c:f>Madonie_GPP!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2263,7 +2363,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$56:$V$56</c:f>
+              <c:f>Madonie_GPP!$B$56:$T$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2329,98 +2429,182 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$60:$V$60</c:f>
+              <c:f>Madonie_GPP!$B$60:$T$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1754.6</c:v>
+                  <c:v>1762.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1506.92</c:v>
+                  <c:v>1513.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1258.48</c:v>
+                  <c:v>1264.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1365.25</c:v>
+                  <c:v>1371.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1278.8499999999999</c:v>
+                  <c:v>1405.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>724.77</c:v>
+                  <c:v>861.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1098.6199999999999</c:v>
+                  <c:v>1252.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1033.77</c:v>
+                  <c:v>1166.6400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1716.97</c:v>
+                  <c:v>1993.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1468.97</c:v>
+                  <c:v>1651.39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1357.21</c:v>
+                  <c:v>1737.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1269.02</c:v>
+                  <c:v>1566.93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1238.77</c:v>
+                  <c:v>1522.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1116.1600000000001</c:v>
+                  <c:v>1293.45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>977.09</c:v>
+                  <c:v>1237.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>827.84</c:v>
+                  <c:v>1023.47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>884.08</c:v>
+                  <c:v>988.49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>600.58000000000004</c:v>
+                  <c:v>937.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>682.32</c:v>
+                  <c:v>867.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$B$59:$T$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1026.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>892.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1030.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>693.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>836.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>912.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2083.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1963.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1932.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1805.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1778.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1574.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1551.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1375.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1254.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1207.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109222144"/>
-        <c:axId val="119439360"/>
+        <c:axId val="103004416"/>
+        <c:axId val="103014400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109222144"/>
+        <c:axId val="103004416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119439360"/>
+        <c:crossAx val="103014400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119439360"/>
+        <c:axId val="103014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109222144"/>
+        <c:crossAx val="103004416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,7 +2627,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2469,7 +2653,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2494,7 +2677,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2554,7 +2737,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2638,7 +2821,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2698,7 +2881,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:f>Madonie_GPP!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2740,11 +2923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109376640"/>
-        <c:axId val="109378176"/>
+        <c:axId val="104413440"/>
+        <c:axId val="104423424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109376640"/>
+        <c:axId val="104413440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2935,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109378176"/>
+        <c:crossAx val="104423424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2760,7 +2943,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109378176"/>
+        <c:axId val="104423424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,19 +2964,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109376640"/>
+        <c:crossAx val="104413440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2812,7 +2993,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2822,13 +3003,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2852,13 +3033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2882,13 +3063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2912,13 +3093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -2942,13 +3123,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -2972,13 +3153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>183932</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>26275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>354725</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>118242</xdr:rowOff>
@@ -3323,1162 +3504,1311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:W60"/>
+  <dimension ref="A4:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12">
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="1:10">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2003</v>
+      </c>
       <c r="D5" s="1">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E5" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F5" s="1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G5" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H5" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I5" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2008</v>
-      </c>
-      <c r="K5" s="1">
         <v>2009</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B6" s="1">
+        <v>1303.56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1084.55</v>
+      </c>
       <c r="D6" s="1">
-        <v>1303.56</v>
+        <v>1437.25</v>
       </c>
       <c r="E6" s="1">
-        <v>1084.55</v>
+        <v>1399.92</v>
       </c>
       <c r="F6" s="1">
-        <v>1437.25</v>
+        <v>1087.04</v>
       </c>
       <c r="G6" s="1">
-        <v>1399.92</v>
+        <v>901.37</v>
       </c>
       <c r="H6" s="1">
-        <v>1087.04</v>
+        <v>1338.98</v>
       </c>
       <c r="I6" s="1">
-        <v>901.37</v>
+        <v>1293.1400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>1338.98</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1293.1400000000001</v>
-      </c>
-      <c r="L6" s="1">
-        <f>AVERAGE(D6:K6)</f>
+        <f>AVERAGE(B6:I6)</f>
         <v>1230.7262499999999</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="1">
+        <v>993.52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>911.63</v>
+      </c>
       <c r="D7" s="1">
-        <v>993.52</v>
+        <v>1082.08</v>
       </c>
       <c r="E7" s="1">
-        <v>911.63</v>
+        <v>1023.17</v>
       </c>
       <c r="F7" s="1">
-        <v>1082.08</v>
+        <v>854.56</v>
       </c>
       <c r="G7" s="1">
-        <v>1023.17</v>
+        <v>817.48</v>
       </c>
       <c r="H7" s="1">
-        <v>854.56</v>
+        <v>1047.24</v>
       </c>
       <c r="I7" s="1">
-        <v>817.48</v>
+        <v>965.75</v>
       </c>
       <c r="J7" s="1">
-        <v>1047.24</v>
-      </c>
-      <c r="K7" s="1">
-        <v>965.75</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" ref="L7:L9" si="0">AVERAGE(D7:K7)</f>
+        <f t="shared" ref="J7:J9" si="0">AVERAGE(B7:I7)</f>
         <v>961.92875000000004</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B8" s="1">
+        <v>852.06</v>
+      </c>
+      <c r="C8" s="1">
+        <v>727.15</v>
+      </c>
       <c r="D8" s="1">
-        <v>852.06</v>
+        <v>951.27</v>
       </c>
       <c r="E8" s="1">
-        <v>727.15</v>
+        <v>824.22</v>
       </c>
       <c r="F8" s="1">
-        <v>951.27</v>
+        <v>639.16</v>
       </c>
       <c r="G8" s="1">
-        <v>824.22</v>
+        <v>154.63</v>
       </c>
       <c r="H8" s="1">
-        <v>639.16</v>
+        <v>708.07</v>
       </c>
       <c r="I8" s="1">
-        <v>154.63</v>
+        <v>801.46</v>
       </c>
       <c r="J8" s="1">
-        <v>708.07</v>
-      </c>
-      <c r="K8" s="1">
-        <v>801.46</v>
-      </c>
-      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>707.25249999999994</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="1">
+        <v>1992.36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1732.92</v>
+      </c>
       <c r="D9" s="1">
-        <v>1992.36</v>
+        <v>1541.75</v>
       </c>
       <c r="E9" s="1">
-        <v>1732.92</v>
+        <v>1702.27</v>
       </c>
       <c r="F9" s="1">
-        <v>1541.75</v>
+        <v>1657.39</v>
       </c>
       <c r="G9" s="1">
-        <v>1702.27</v>
+        <v>964.76</v>
       </c>
       <c r="H9" s="1">
-        <v>1657.39</v>
+        <v>1552.61</v>
       </c>
       <c r="I9" s="1">
-        <v>964.76</v>
+        <v>1525</v>
       </c>
       <c r="J9" s="1">
-        <v>1552.61</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1525</v>
-      </c>
-      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>1583.6324999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
-      <c r="D10" s="13" t="s">
+    <row r="10" spans="1:10">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2003</v>
+      </c>
       <c r="D11" s="1">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E11" s="1">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F11" s="1">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G11" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H11" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="K11" s="1">
         <v>2009</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B12" s="2">
+        <v>1303.56</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1084.55</v>
+      </c>
       <c r="D12" s="2">
-        <v>1303.56</v>
+        <v>1437.25</v>
       </c>
       <c r="E12" s="2">
-        <v>1084.55</v>
+        <v>1399.92</v>
       </c>
       <c r="F12" s="2">
-        <v>1437.25</v>
+        <v>1087.04</v>
       </c>
       <c r="G12" s="2">
-        <v>1399.92</v>
+        <v>901.37</v>
       </c>
       <c r="H12" s="2">
-        <v>1087.04</v>
+        <v>1338.98</v>
       </c>
       <c r="I12" s="2">
-        <v>901.37</v>
+        <v>1293.1400000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>1338.98</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1293.1400000000001</v>
-      </c>
-      <c r="L12" s="2">
-        <f>AVERAGE(D12:K12)</f>
+        <f>AVERAGE(B12:I12)</f>
         <v>1230.7262499999999</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B13" s="4">
+        <v>1907.79</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1753.53</v>
+      </c>
       <c r="D13" s="4">
-        <v>1907.79</v>
+        <v>2085.36</v>
       </c>
       <c r="E13" s="4">
-        <v>1753.53</v>
+        <v>1975.98</v>
       </c>
       <c r="F13" s="4">
-        <v>2085.36</v>
+        <v>1654.21</v>
       </c>
       <c r="G13" s="4">
-        <v>1975.98</v>
+        <v>1586.51</v>
       </c>
       <c r="H13" s="4">
-        <v>1654.21</v>
+        <v>2038.11</v>
       </c>
       <c r="I13" s="4">
-        <v>1586.51</v>
+        <v>1885.32</v>
       </c>
       <c r="J13" s="4">
-        <v>2038.11</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1885.32</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" ref="L13:L15" si="1">AVERAGE(D13:K13)</f>
+        <f t="shared" ref="J13:J15" si="1">AVERAGE(B13:I13)</f>
         <v>1860.8512499999999</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B14" s="4">
+        <v>1821.47</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1508.88</v>
+      </c>
       <c r="D14" s="4">
-        <v>1821.47</v>
+        <v>1713</v>
       </c>
       <c r="E14" s="4">
-        <v>1508.88</v>
+        <v>1479.45</v>
       </c>
       <c r="F14" s="4">
-        <v>1713</v>
+        <v>1273.51</v>
       </c>
       <c r="G14" s="4">
-        <v>1479.45</v>
+        <v>433.98</v>
       </c>
       <c r="H14" s="4">
-        <v>1273.51</v>
+        <v>1671.53</v>
       </c>
       <c r="I14" s="4">
-        <v>433.98</v>
+        <v>1786.65</v>
       </c>
       <c r="J14" s="4">
-        <v>1671.53</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1786.65</v>
-      </c>
-      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>1461.0587500000001</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="4">
+        <v>1568.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1328.83</v>
+      </c>
       <c r="D15" s="4">
-        <v>1568.5</v>
+        <v>1129.93</v>
       </c>
       <c r="E15" s="4">
-        <v>1328.83</v>
+        <v>1233.76</v>
       </c>
       <c r="F15" s="4">
-        <v>1129.93</v>
+        <v>1165.8800000000001</v>
       </c>
       <c r="G15" s="4">
-        <v>1233.76</v>
+        <v>658.04</v>
       </c>
       <c r="H15" s="4">
-        <v>1165.8800000000001</v>
+        <v>1026</v>
       </c>
       <c r="I15" s="4">
-        <v>658.04</v>
+        <v>975.93</v>
       </c>
       <c r="J15" s="4">
-        <v>1026</v>
-      </c>
-      <c r="K15" s="4">
-        <v>975.93</v>
-      </c>
-      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>1135.8587500000001</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="3"/>
-      <c r="D16" s="12" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B17" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2003</v>
+      </c>
       <c r="D17" s="3">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E17" s="3">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F17" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G17" s="3">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H17" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I17" s="3">
-        <v>2007</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K17" s="3">
         <v>2009</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B18" s="4">
+        <v>1303.56</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1084.55</v>
+      </c>
       <c r="D18" s="4">
-        <v>1303.56</v>
+        <v>1437.25</v>
       </c>
       <c r="E18" s="4">
-        <v>1084.55</v>
+        <v>1399.92</v>
       </c>
       <c r="F18" s="4">
-        <v>1437.25</v>
+        <v>1087.04</v>
       </c>
       <c r="G18" s="4">
-        <v>1399.92</v>
+        <v>901.37</v>
       </c>
       <c r="H18" s="4">
-        <v>1087.04</v>
+        <v>1338.98</v>
       </c>
       <c r="I18" s="4">
-        <v>901.37</v>
+        <v>1293.1400000000001</v>
       </c>
       <c r="J18" s="4">
-        <v>1338.98</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1293.1400000000001</v>
-      </c>
-      <c r="L18" s="4">
-        <f>AVERAGE(D18:K18)</f>
+        <f>AVERAGE(B18:I18)</f>
         <v>1230.7262499999999</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B19" s="4">
+        <v>1749.33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1601.45</v>
+      </c>
       <c r="D19" s="4">
-        <v>1749.33</v>
+        <v>1938.99</v>
       </c>
       <c r="E19" s="4">
-        <v>1601.45</v>
+        <v>1830.15</v>
       </c>
       <c r="F19" s="4">
-        <v>1938.99</v>
+        <v>1516.7</v>
       </c>
       <c r="G19" s="4">
-        <v>1830.15</v>
+        <v>1431.8</v>
       </c>
       <c r="H19" s="4">
-        <v>1516.7</v>
+        <v>1859.35</v>
       </c>
       <c r="I19" s="4">
-        <v>1431.8</v>
+        <v>1712.41</v>
       </c>
       <c r="J19" s="4">
-        <v>1859.35</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1712.41</v>
-      </c>
-      <c r="L19" s="4">
-        <f>AVERAGE(D19:K19)</f>
+        <f>AVERAGE(B19:I19)</f>
         <v>1705.0225</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B20" s="4">
+        <v>1686.78</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1413.19</v>
+      </c>
       <c r="D20" s="4">
-        <v>1686.78</v>
+        <v>1583.33</v>
       </c>
       <c r="E20" s="4">
-        <v>1413.19</v>
+        <v>1433.39</v>
       </c>
       <c r="F20" s="4">
-        <v>1583.33</v>
+        <v>1201.8399999999999</v>
       </c>
       <c r="G20" s="4">
-        <v>1433.39</v>
+        <v>378.66</v>
       </c>
       <c r="H20" s="4">
-        <v>1201.8399999999999</v>
+        <v>1500.45</v>
       </c>
       <c r="I20" s="4">
-        <v>378.66</v>
+        <v>1671.07</v>
       </c>
       <c r="J20" s="4">
-        <v>1500.45</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1671.07</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" ref="L20:L21" si="2">AVERAGE(D20:K20)</f>
+        <f t="shared" ref="J20:J21" si="2">AVERAGE(B20:I20)</f>
         <v>1358.5887500000001</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B21" s="4">
+        <v>1654.67</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1460.21</v>
+      </c>
       <c r="D21" s="4">
-        <v>1654.67</v>
+        <v>1204.54</v>
       </c>
       <c r="E21" s="4">
-        <v>1460.21</v>
+        <v>1318.07</v>
       </c>
       <c r="F21" s="4">
-        <v>1204.54</v>
+        <v>1246.29</v>
       </c>
       <c r="G21" s="4">
-        <v>1318.07</v>
+        <v>728.19</v>
       </c>
       <c r="H21" s="4">
-        <v>1246.29</v>
+        <v>1092.6300000000001</v>
       </c>
       <c r="I21" s="4">
-        <v>728.19</v>
+        <v>1045.1600000000001</v>
       </c>
       <c r="J21" s="4">
-        <v>1092.6300000000001</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1045.1600000000001</v>
-      </c>
-      <c r="L21" s="4">
         <f t="shared" si="2"/>
         <v>1218.7199999999998</v>
       </c>
     </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="3"/>
-      <c r="D22" s="12" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="3"/>
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2003</v>
+      </c>
       <c r="D23" s="3">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E23" s="3">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F23" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G23" s="3">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H23" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I23" s="3">
-        <v>2007</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K23" s="3">
         <v>2009</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B24" s="4">
+        <v>1322.83</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1103.8</v>
+      </c>
       <c r="D24" s="4">
-        <v>1322.83</v>
+        <v>1467.65</v>
       </c>
       <c r="E24" s="4">
-        <v>1103.8</v>
+        <v>1434.92</v>
       </c>
       <c r="F24" s="4">
-        <v>1467.65</v>
+        <v>1118.94</v>
       </c>
       <c r="G24" s="4">
-        <v>1434.92</v>
+        <v>932.23</v>
       </c>
       <c r="H24" s="4">
-        <v>1118.94</v>
+        <v>1392.11</v>
       </c>
       <c r="I24" s="4">
-        <v>932.23</v>
+        <v>1352.31</v>
       </c>
       <c r="J24" s="4">
-        <v>1392.11</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1352.31</v>
-      </c>
-      <c r="L24" s="4">
-        <f>AVERAGE(D24:K24)</f>
+        <f>AVERAGE(B24:I24)</f>
         <v>1265.5987500000001</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="3" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B25" s="4">
+        <v>1730.3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1576.9</v>
+      </c>
       <c r="D25" s="4">
-        <v>1730.3</v>
+        <v>1894.88</v>
       </c>
       <c r="E25" s="4">
-        <v>1576.9</v>
+        <v>1780.42</v>
       </c>
       <c r="F25" s="4">
-        <v>1894.88</v>
+        <v>1646.03</v>
       </c>
       <c r="G25" s="4">
-        <v>1780.42</v>
+        <v>1369.54</v>
       </c>
       <c r="H25" s="4">
-        <v>1646.03</v>
+        <v>1759.92</v>
       </c>
       <c r="I25" s="4">
-        <v>1369.54</v>
+        <v>1601.53</v>
       </c>
       <c r="J25" s="4">
-        <v>1759.92</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1601.53</v>
-      </c>
-      <c r="L25" s="4">
-        <f>AVERAGE(D25:K25)</f>
+        <f>AVERAGE(B25:I25)</f>
         <v>1669.94</v>
       </c>
     </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B26" s="4">
+        <v>1772.4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1489.63</v>
+      </c>
       <c r="D26" s="4">
-        <v>1772.4</v>
+        <v>1674.39</v>
       </c>
       <c r="E26" s="4">
-        <v>1489.63</v>
+        <v>1520.2</v>
       </c>
       <c r="F26" s="4">
-        <v>1674.39</v>
+        <v>1279.57</v>
       </c>
       <c r="G26" s="4">
-        <v>1520.2</v>
+        <v>404.31</v>
       </c>
       <c r="H26" s="4">
-        <v>1279.57</v>
+        <v>1609</v>
       </c>
       <c r="I26" s="4">
-        <v>404.31</v>
+        <v>1798.7</v>
       </c>
       <c r="J26" s="4">
-        <v>1609</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1798.7</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" ref="L26:L27" si="3">AVERAGE(D26:K26)</f>
+        <f t="shared" ref="J26:J27" si="3">AVERAGE(B26:I26)</f>
         <v>1443.5250000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B27" s="4">
+        <v>2092.61</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1885.76</v>
+      </c>
       <c r="D27" s="4">
-        <v>2092.61</v>
+        <v>1588.86</v>
       </c>
       <c r="E27" s="4">
-        <v>1885.76</v>
+        <v>1775.95</v>
       </c>
       <c r="F27" s="4">
-        <v>1588.86</v>
+        <v>1715.13</v>
       </c>
       <c r="G27" s="4">
-        <v>1775.95</v>
+        <v>1023.3</v>
       </c>
       <c r="H27" s="4">
-        <v>1715.13</v>
+        <v>1567.2</v>
       </c>
       <c r="I27" s="4">
-        <v>1023.3</v>
+        <v>1529.27</v>
       </c>
       <c r="J27" s="4">
-        <v>1567.2</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1529.27</v>
-      </c>
-      <c r="L27" s="4">
         <f t="shared" si="3"/>
         <v>1647.26</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="12" thickBot="1">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="1:12" ht="12" thickBot="1">
+      <c r="A28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="3:14">
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B29" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2003</v>
+      </c>
       <c r="D29" s="3">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E29" s="3">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F29" s="3">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G29" s="3">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H29" s="3">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="I29" s="3">
-        <v>2007</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K29" s="3">
         <v>2009</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B30" s="3">
+        <v>1322.862779</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1103.8313029999999</v>
+      </c>
       <c r="D30" s="3">
-        <v>1322.862779</v>
+        <v>1467.683417</v>
       </c>
       <c r="E30" s="3">
-        <v>1103.8313029999999</v>
+        <v>1435.8820149999999</v>
       </c>
       <c r="F30" s="3">
-        <v>1467.683417</v>
+        <v>1118.9712400000001</v>
       </c>
       <c r="G30" s="3">
-        <v>1435.8820149999999</v>
+        <v>932.25153899999998</v>
       </c>
       <c r="H30" s="3">
-        <v>1118.9712400000001</v>
+        <v>1392.146428</v>
       </c>
       <c r="I30" s="3">
-        <v>932.25153899999998</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1392.146428</v>
-      </c>
-      <c r="K30" s="3">
         <v>1352.342668</v>
       </c>
-      <c r="L30" s="4">
-        <f>AVERAGE(D30:K30)</f>
+      <c r="J30" s="4">
+        <f>AVERAGE(B30:I30)</f>
         <v>1265.746423625</v>
       </c>
-      <c r="M30" s="1">
-        <f>AVERAGE(K30,J30,H30,G30,F30,E30,D30)</f>
+      <c r="K30" s="1">
+        <f>AVERAGE(I30,H30,F30,E30,D30,C30,B30)</f>
         <v>1313.3885500000001</v>
       </c>
-      <c r="N30" s="10">
-        <f>L30*0.49</f>
+      <c r="L30" s="10">
+        <f>J30*0.49</f>
         <v>620.21574757625001</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="3" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B31" s="3">
+        <v>1711.9945270000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1560.1885930000001</v>
+      </c>
       <c r="D31" s="3">
-        <v>1711.9945270000001</v>
+        <v>1874.7971259999999</v>
       </c>
       <c r="E31" s="3">
-        <v>1560.1885930000001</v>
+        <v>1761.5565309999999</v>
       </c>
       <c r="F31" s="3">
-        <v>1874.7971259999999</v>
+        <v>1448.5159739999999</v>
       </c>
       <c r="G31" s="3">
-        <v>1761.5565309999999</v>
+        <v>1355.0328219999999</v>
       </c>
       <c r="H31" s="3">
-        <v>1448.5159739999999</v>
+        <v>1741.273158</v>
       </c>
       <c r="I31" s="3">
-        <v>1355.0328219999999</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1741.273158</v>
-      </c>
-      <c r="K31" s="3">
         <v>1584.558931</v>
       </c>
-      <c r="L31" s="4">
-        <f>AVERAGE(D31:K31)</f>
+      <c r="J31" s="4">
+        <f>AVERAGE(B31:I31)</f>
         <v>1629.7397077499998</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" ref="M31:M33" si="4">AVERAGE(K31,J31,H31,G31,F31,E31,D31)</f>
+      <c r="K31" s="1">
+        <f t="shared" ref="K31:K33" si="4">AVERAGE(I31,H31,F31,E31,D31,C31,B31)</f>
         <v>1668.9835485714286</v>
       </c>
-      <c r="N31" s="10">
-        <f t="shared" ref="N31:N33" si="5">L31*0.49</f>
+      <c r="L31" s="10">
+        <f t="shared" ref="L31:L33" si="5">J31*0.49</f>
         <v>798.57245679749985</v>
       </c>
     </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B32" s="3">
+        <v>1663.9636370000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1373.902558</v>
+      </c>
       <c r="D32" s="3">
+        <v>1551.296926</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1400.266494</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1164.3494949999999</v>
+      </c>
+      <c r="G32" s="3">
+        <v>357.48516699999999</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1466.0512490000001</v>
+      </c>
+      <c r="I32" s="3">
         <v>1663.9636370000001</v>
       </c>
-      <c r="E32" s="3">
-        <v>1373.902558</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1551.296926</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400.266494</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1164.3494949999999</v>
-      </c>
-      <c r="I32" s="3">
-        <v>357.48516699999999</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1466.0512490000001</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1663.9636370000001</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" ref="L32:L33" si="6">AVERAGE(D32:K32)</f>
+      <c r="J32" s="4">
+        <f t="shared" ref="J32:J33" si="6">AVERAGE(B32:I32)</f>
         <v>1330.1598953749999</v>
       </c>
-      <c r="M32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="4"/>
         <v>1469.1134280000001</v>
       </c>
-      <c r="N32" s="10">
+      <c r="L32" s="10">
         <f t="shared" si="5"/>
         <v>651.77834873374991</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="12" thickBot="1">
-      <c r="C33" s="3" t="s">
+    <row r="33" spans="1:12" ht="12" thickBot="1">
+      <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B33" s="3">
+        <v>1762.8977870000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1513.8053480000001</v>
+      </c>
       <c r="D33" s="3">
-        <v>1762.8977870000001</v>
+        <v>1264.202378</v>
       </c>
       <c r="E33" s="3">
-        <v>1513.8053480000001</v>
+        <v>1371.6033379999999</v>
       </c>
       <c r="F33" s="3">
-        <v>1264.202378</v>
+        <v>1285.026734</v>
       </c>
       <c r="G33" s="3">
-        <v>1371.6033379999999</v>
+        <v>728.00964499999998</v>
       </c>
       <c r="H33" s="3">
-        <v>1285.026734</v>
+        <v>1103.499141</v>
       </c>
       <c r="I33" s="3">
-        <v>728.00964499999998</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1103.499141</v>
-      </c>
-      <c r="K33" s="3">
         <v>1037.742211</v>
       </c>
-      <c r="L33" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="6"/>
         <v>1258.3483227500001</v>
       </c>
-      <c r="M33" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="4"/>
         <v>1334.110991</v>
       </c>
-      <c r="N33" s="11">
+      <c r="L33" s="11">
         <f t="shared" si="5"/>
         <v>616.59067814750006</v>
       </c>
     </row>
-    <row r="36" spans="3:14">
-      <c r="I36" s="1">
-        <f>(I30*100)/M30</f>
+    <row r="36" spans="1:12">
+      <c r="G36" s="1">
+        <f>(G30*100)/K30</f>
         <v>70.980635471506119</v>
       </c>
-      <c r="J36" s="1">
-        <f>100-I36</f>
+      <c r="H36" s="1">
+        <f>100-G36</f>
         <v>29.019364528493881</v>
       </c>
     </row>
-    <row r="37" spans="3:14">
-      <c r="I37" s="1">
-        <f t="shared" ref="I37:I39" si="7">(I31*100)/M31</f>
+    <row r="37" spans="1:12">
+      <c r="G37" s="1">
+        <f t="shared" ref="G37:G39" si="7">(G31*100)/K31</f>
         <v>81.189105977697878</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" ref="J37:J39" si="8">100-I37</f>
+      <c r="H37" s="1">
+        <f t="shared" ref="H37:H39" si="8">100-G37</f>
         <v>18.810894022302122</v>
       </c>
     </row>
-    <row r="38" spans="3:14">
-      <c r="I38" s="1">
+    <row r="38" spans="1:12">
+      <c r="G38" s="1">
         <f t="shared" si="7"/>
         <v>24.333394562097759</v>
       </c>
-      <c r="J38" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="8"/>
         <v>75.666605437902234</v>
       </c>
     </row>
-    <row r="39" spans="3:14">
-      <c r="I39" s="1">
+    <row r="39" spans="1:12">
+      <c r="G39" s="1">
         <f t="shared" si="7"/>
         <v>54.568896434494633</v>
       </c>
-      <c r="J39" s="1">
+      <c r="H39" s="1">
         <f t="shared" si="8"/>
         <v>45.431103565505367</v>
       </c>
     </row>
-    <row r="55" spans="3:23">
-      <c r="D55" s="13" t="s">
+    <row r="55" spans="1:23" ht="12" thickBot="1">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+    </row>
+    <row r="56" spans="1:23" ht="12" thickBot="1">
+      <c r="A56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="22">
+        <v>2002</v>
+      </c>
+      <c r="C56" s="23">
+        <v>2003</v>
+      </c>
+      <c r="D56" s="23">
+        <v>2004</v>
+      </c>
+      <c r="E56" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F56" s="23">
+        <v>2006</v>
+      </c>
+      <c r="G56" s="23">
+        <v>2007</v>
+      </c>
+      <c r="H56" s="23">
+        <v>2008</v>
+      </c>
+      <c r="I56" s="24">
+        <v>2009</v>
+      </c>
+      <c r="J56" s="22">
+        <v>2010</v>
+      </c>
+      <c r="K56" s="23">
+        <v>2011</v>
+      </c>
+      <c r="L56" s="23">
+        <v>2012</v>
+      </c>
+      <c r="M56" s="23">
+        <v>2013</v>
+      </c>
+      <c r="N56" s="23">
+        <v>2014</v>
+      </c>
+      <c r="O56" s="23">
+        <v>2015</v>
+      </c>
+      <c r="P56" s="23">
+        <v>2016</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>2017</v>
+      </c>
+      <c r="R56" s="23">
+        <v>2018</v>
+      </c>
+      <c r="S56" s="23">
+        <v>2019</v>
+      </c>
+      <c r="T56" s="24">
+        <v>2020</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
+      <c r="V56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="56" spans="3:23">
-      <c r="C56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E56" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2004</v>
-      </c>
-      <c r="G56" s="3">
-        <v>2005</v>
-      </c>
-      <c r="H56" s="3">
-        <v>2006</v>
-      </c>
-      <c r="I56" s="3">
-        <v>2007</v>
-      </c>
-      <c r="J56" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K56" s="3">
-        <v>2009</v>
-      </c>
-      <c r="L56" s="3">
-        <v>2010</v>
-      </c>
-      <c r="M56" s="3">
-        <v>2011</v>
-      </c>
-      <c r="N56" s="3">
-        <v>2012</v>
-      </c>
-      <c r="O56" s="3">
-        <v>2013</v>
-      </c>
-      <c r="P56" s="3">
-        <v>2014</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>2015</v>
-      </c>
-      <c r="R56" s="3">
-        <v>2016</v>
-      </c>
-      <c r="S56" s="3">
-        <v>2017</v>
-      </c>
-      <c r="T56" s="3">
-        <v>2018</v>
-      </c>
-      <c r="U56" s="3">
-        <v>2019</v>
-      </c>
-      <c r="V56" s="3">
-        <v>2020</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>5</v>
+    <row r="57" spans="1:23">
+      <c r="A57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17">
+        <v>2535.7199999999998</v>
+      </c>
+      <c r="T57" s="18">
+        <v>2553.91</v>
+      </c>
+      <c r="U57" s="1">
+        <f>AVERAGE(B57:T57)</f>
+        <v>2544.8149999999996</v>
+      </c>
+      <c r="V57" s="1" t="e">
+        <f>AVERAGE(B57:I57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57" s="1">
+        <f>AVERAGE(J57:T57)</f>
+        <v>2544.8149999999996</v>
       </c>
     </row>
-    <row r="57" spans="3:23">
-      <c r="C57" s="3" t="s">
-        <v>0</v>
+    <row r="58" spans="1:23">
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="1" t="e">
+        <f t="shared" ref="U58:U60" si="9">AVERAGE(B58:T58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V58" s="1" t="e">
+        <f>AVERAGE(B58:I58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W58" s="1" t="e">
+        <f t="shared" ref="W58:W59" si="10">AVERAGE(J58:T58)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="3:23">
-      <c r="C58" s="3" t="s">
-        <v>2</v>
+    <row r="59" spans="1:23">
+      <c r="A59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1026.9100000000001</v>
+      </c>
+      <c r="C59" s="17">
+        <v>892.65</v>
+      </c>
+      <c r="D59" s="17">
+        <v>1030.6600000000001</v>
+      </c>
+      <c r="E59" s="17">
+        <v>879.23</v>
+      </c>
+      <c r="F59" s="17">
+        <v>693.35</v>
+      </c>
+      <c r="G59" s="17">
+        <v>203.33</v>
+      </c>
+      <c r="H59" s="17">
+        <v>836.45</v>
+      </c>
+      <c r="I59" s="18">
+        <v>912.07</v>
+      </c>
+      <c r="J59" s="16">
+        <v>2083.89</v>
+      </c>
+      <c r="K59" s="17">
+        <v>1963.81</v>
+      </c>
+      <c r="L59" s="17">
+        <v>1932.58</v>
+      </c>
+      <c r="M59" s="17">
+        <v>1805.38</v>
+      </c>
+      <c r="N59" s="17">
+        <v>1778.25</v>
+      </c>
+      <c r="O59" s="17">
+        <v>1574.43</v>
+      </c>
+      <c r="P59" s="17">
+        <v>1551.26</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>1375.19</v>
+      </c>
+      <c r="R59" s="17">
+        <v>1307</v>
+      </c>
+      <c r="S59" s="17">
+        <v>1254.69</v>
+      </c>
+      <c r="T59" s="18">
+        <v>1207.58</v>
+      </c>
+      <c r="U59" s="1">
+        <f t="shared" si="9"/>
+        <v>1279.4057894736839</v>
+      </c>
+      <c r="V59" s="1">
+        <f>AVERAGE(B59:I59)</f>
+        <v>809.33124999999995</v>
+      </c>
+      <c r="W59" s="1">
+        <f t="shared" si="10"/>
+        <v>1621.2781818181816</v>
       </c>
     </row>
-    <row r="59" spans="3:23">
-      <c r="C59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23">
-      <c r="C60" s="3" t="s">
+    <row r="60" spans="1:23" ht="12" thickBot="1">
+      <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="1">
-        <v>1754.6</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1506.92</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1258.48</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1365.25</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1278.8499999999999</v>
-      </c>
-      <c r="I60" s="1">
-        <v>724.77</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1098.6199999999999</v>
-      </c>
-      <c r="K60" s="1">
-        <v>1033.77</v>
-      </c>
-      <c r="L60" s="1">
-        <v>1716.97</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1468.97</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1357.21</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1269.02</v>
-      </c>
-      <c r="P60" s="1">
-        <v>1238.77</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>1116.1600000000001</v>
-      </c>
-      <c r="R60" s="1">
-        <v>977.09</v>
-      </c>
-      <c r="S60" s="1">
-        <v>827.84</v>
-      </c>
-      <c r="T60" s="1">
-        <v>884.08</v>
+      <c r="B60" s="19">
+        <v>1762.88</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1513.76</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1264.08</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1371.59</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1405.1</v>
+      </c>
+      <c r="G60" s="20">
+        <v>861.32</v>
+      </c>
+      <c r="H60" s="20">
+        <v>1252.04</v>
+      </c>
+      <c r="I60" s="21">
+        <v>1166.6400000000001</v>
+      </c>
+      <c r="J60" s="19">
+        <v>1993.1</v>
+      </c>
+      <c r="K60" s="20">
+        <v>1651.39</v>
+      </c>
+      <c r="L60" s="20">
+        <v>1737.69</v>
+      </c>
+      <c r="M60" s="20">
+        <v>1566.93</v>
+      </c>
+      <c r="N60" s="20">
+        <v>1522.47</v>
+      </c>
+      <c r="O60" s="20">
+        <v>1293.45</v>
+      </c>
+      <c r="P60" s="20">
+        <v>1237.21</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>1023.47</v>
+      </c>
+      <c r="R60" s="20">
+        <v>988.49</v>
+      </c>
+      <c r="S60" s="20">
+        <v>937.73</v>
+      </c>
+      <c r="T60" s="21">
+        <v>867.16</v>
       </c>
       <c r="U60" s="1">
-        <v>600.58000000000004</v>
+        <f t="shared" si="9"/>
+        <v>1337.7105263157896</v>
       </c>
       <c r="V60" s="1">
-        <v>682.32</v>
+        <f>AVERAGE(B60:I60)</f>
+        <v>1324.67625</v>
       </c>
       <c r="W60" s="1">
-        <f>AVERAGE(D60:V60)</f>
-        <v>1166.3300000000002</v>
+        <f>AVERAGE(J60:T60)</f>
+        <v>1347.19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D55:V55"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="B55:T55"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
